--- a/Systemnahe-Programmierung/Assembler_Fragen_Lösungshinweise2022.xlsx
+++ b/Systemnahe-Programmierung/Assembler_Fragen_Lösungshinweise2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\assemble_2021\Vorlesungsunterlagen_Assembler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Studium\Systemnahe-Programmierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A68A24-4F4B-410B-82E1-FBD86A4429A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E73EDF8-72DB-40EE-A7CB-5836139B2B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="180" windowWidth="13560" windowHeight="4560" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fragen Handling NASM" sheetId="2" r:id="rId1"/>
@@ -5526,18 +5526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5546,17 +5546,17 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -5572,7 +5572,7 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -5588,7 +5588,7 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -5604,7 +5604,7 @@
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -5620,7 +5620,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -5636,12 +5636,12 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -5650,12 +5650,12 @@
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" s="30" t="s">
         <v>5</v>
       </c>
@@ -5674,7 +5674,7 @@
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" s="30" t="s">
         <v>6</v>
       </c>
@@ -5691,17 +5691,17 @@
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -5726,7 +5726,7 @@
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -5734,22 +5734,22 @@
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -5758,7 +5758,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -5767,7 +5767,7 @@
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -5776,12 +5776,12 @@
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
@@ -5821,22 +5821,22 @@
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -5850,7 +5850,7 @@
       <c r="L41" s="30"/>
       <c r="M41" s="30"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -5864,34 +5864,34 @@
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A52" s="30" t="s">
         <v>56</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -5955,7 +5955,7 @@
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
@@ -5966,32 +5966,32 @@
       <c r="N54" s="30"/>
       <c r="O54" s="30"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A58" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -6002,7 +6002,7 @@
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -6013,17 +6013,17 @@
       <c r="H62" s="30"/>
       <c r="I62" s="30"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
@@ -6041,16 +6041,16 @@
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="16.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="16.5546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="C1" s="106" t="s">
         <v>258</v>
       </c>
@@ -6063,7 +6063,7 @@
       <c r="J1" s="106"/>
       <c r="K1" s="106"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
         <v>269</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" s="23" t="s">
         <v>270</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
         <v>271</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="23" t="s">
         <v>272</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" s="23" t="s">
         <v>273</v>
       </c>
@@ -6121,17 +6121,17 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" s="23"/>
       <c r="H8" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" s="23"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" s="23" t="s">
         <v>274</v>
       </c>
@@ -6139,16 +6139,16 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" s="23"/>
       <c r="B11" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" s="23"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" s="23"/>
       <c r="B13" s="1" t="s">
         <v>126</v>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="I13" s="105"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="23"/>
       <c r="C14" s="1" t="s">
         <v>277</v>
@@ -6182,7 +6182,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>278</v>
@@ -6203,7 +6203,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" s="23"/>
       <c r="F16" s="36" t="s">
         <v>289</v>
@@ -6216,7 +6216,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" s="23"/>
       <c r="F17" s="26" t="s">
         <v>281</v>
@@ -6228,13 +6228,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" s="23"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" s="23"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" s="23" t="s">
         <v>292</v>
       </c>
@@ -6242,16 +6242,16 @@
         <v>293</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21" s="23"/>
       <c r="B21" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" s="23"/>
       <c r="B23" s="1" t="s">
         <v>126</v>
@@ -6266,7 +6266,7 @@
       <c r="J23" s="104"/>
       <c r="K23" s="105"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>296</v>
@@ -6294,7 +6294,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" s="23"/>
       <c r="C25" s="1" t="s">
         <v>304</v>
@@ -6322,7 +6322,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26" s="23"/>
       <c r="F26" s="36" t="s">
         <v>289</v>
@@ -6341,7 +6341,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27" s="23"/>
       <c r="F27" s="26" t="s">
         <v>281</v>
@@ -6359,19 +6359,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" s="23"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" s="23"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" s="23"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" s="23"/>
     </row>
-    <row r="32" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="23" t="s">
         <v>308</v>
       </c>
@@ -6379,16 +6379,16 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" s="23"/>
       <c r="B33" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" s="23"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" s="23"/>
       <c r="B35" s="1" t="s">
         <v>126</v>
@@ -6408,7 +6408,7 @@
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" s="23"/>
       <c r="C36" s="1" t="s">
         <v>311</v>
@@ -6431,7 +6431,7 @@
       <c r="M36" s="33"/>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" s="23"/>
       <c r="C37" s="1" t="s">
         <v>312</v>
@@ -6454,7 +6454,7 @@
       <c r="M37" s="34"/>
       <c r="N37" s="32"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" s="23"/>
       <c r="F38" s="36" t="s">
         <v>289</v>
@@ -6469,7 +6469,7 @@
       <c r="M38" s="32"/>
       <c r="N38" s="32"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39" s="23"/>
       <c r="F39" s="26" t="s">
         <v>281</v>
@@ -6483,13 +6483,13 @@
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40" s="23"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41" s="23"/>
     </row>
-    <row r="42" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="23" t="s">
         <v>319</v>
       </c>
@@ -6497,16 +6497,16 @@
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43" s="23"/>
       <c r="B43" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44" s="23"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" s="23"/>
       <c r="B45" s="1" t="s">
         <v>126</v>
@@ -6521,7 +6521,7 @@
       <c r="J45" s="104"/>
       <c r="K45" s="105"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" s="23"/>
       <c r="C46" s="1" t="s">
         <v>322</v>
@@ -6549,7 +6549,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" s="23"/>
       <c r="C47" s="1" t="s">
         <v>323</v>
@@ -6577,7 +6577,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" s="23"/>
       <c r="F48" s="36" t="s">
         <v>289</v>
@@ -6596,7 +6596,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49" s="23"/>
       <c r="F49" s="26" t="s">
         <v>281</v>
@@ -6614,7 +6614,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50" s="23"/>
     </row>
   </sheetData>
@@ -6637,9 +6637,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
         <v>252</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="H1" s="107"/>
       <c r="I1" s="107"/>
     </row>
-    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="22"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -6661,7 +6661,7 @@
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
     </row>
-    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>329</v>
       </c>
@@ -6678,7 +6678,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>330</v>
       </c>
@@ -6695,7 +6695,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -6710,7 +6710,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6725,7 +6725,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>331</v>
       </c>
@@ -6742,7 +6742,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -6757,7 +6757,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>332</v>
       </c>
@@ -6774,7 +6774,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -6789,7 +6789,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>333</v>
       </c>
@@ -6806,7 +6806,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -6821,7 +6821,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>334</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -6853,7 +6853,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -6868,7 +6868,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -6883,7 +6883,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6898,7 +6898,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -6913,7 +6913,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6928,7 +6928,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -6943,7 +6943,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -6958,7 +6958,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6973,7 +6973,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6988,7 +6988,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -7003,7 +7003,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -7018,7 +7018,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -7033,7 +7033,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -7048,7 +7048,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -7063,7 +7063,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -7078,7 +7078,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -7093,7 +7093,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -7124,17 +7124,17 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="16.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="8"/>
     <col min="3" max="3" width="24" style="8" customWidth="1"/>
-    <col min="4" max="11" width="11.42578125" style="8"/>
-    <col min="12" max="12" width="15.42578125" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="8"/>
+    <col min="4" max="11" width="11.44140625" style="8"/>
+    <col min="12" max="12" width="15.44140625" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="22"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -7150,7 +7150,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="22"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -7164,7 +7164,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A3" s="40" t="s">
         <v>338</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="K3" s="41"/>
       <c r="L3" s="43"/>
     </row>
-    <row r="4" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="48" t="s">
         <v>336</v>
       </c>
@@ -7196,7 +7196,7 @@
       <c r="K4" s="49"/>
       <c r="L4" s="45"/>
     </row>
-    <row r="5" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A5" s="48" t="s">
         <v>339</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="K5" s="49"/>
       <c r="L5" s="45"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A6" s="50" t="s">
         <v>337</v>
       </c>
@@ -7228,12 +7228,12 @@
       <c r="K6" s="51"/>
       <c r="L6" s="47"/>
     </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>248</v>
       </c>
@@ -7253,7 +7253,7 @@
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
     </row>
-    <row r="10" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>251</v>
       </c>
@@ -7269,7 +7269,7 @@
       <c r="K10" s="53"/>
       <c r="L10" s="53"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="53" t="s">
         <v>69</v>
       </c>
@@ -7285,7 +7285,7 @@
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="53" t="s">
         <v>70</v>
       </c>
@@ -7301,7 +7301,7 @@
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
@@ -7315,7 +7315,7 @@
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="53" t="s">
         <v>108</v>
       </c>
@@ -7331,7 +7331,7 @@
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="53" t="s">
         <v>146</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="53" t="s">
         <v>147</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="53" t="s">
         <v>81</v>
       </c>
@@ -7379,7 +7379,7 @@
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="53" t="s">
         <v>106</v>
       </c>
@@ -7395,7 +7395,7 @@
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -7409,7 +7409,7 @@
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -7423,7 +7423,7 @@
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="53" t="s">
         <v>71</v>
       </c>
@@ -7439,7 +7439,7 @@
       <c r="K21" s="53"/>
       <c r="L21" s="53"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="53" t="s">
         <v>148</v>
       </c>
@@ -7455,7 +7455,7 @@
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="53" t="s">
         <v>235</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="K23" s="53"/>
       <c r="L23" s="53"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -7485,7 +7485,7 @@
       <c r="K24" s="53"/>
       <c r="L24" s="53"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="53" t="s">
         <v>236</v>
       </c>
@@ -7503,7 +7503,7 @@
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="53" t="s">
         <v>414</v>
       </c>
@@ -7521,7 +7521,7 @@
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="53" t="s">
         <v>241</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="53" t="s">
         <v>238</v>
       </c>
@@ -7557,7 +7557,7 @@
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="53" t="s">
         <v>81</v>
       </c>
@@ -7575,7 +7575,7 @@
       <c r="K29" s="53"/>
       <c r="L29" s="53"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="53" t="s">
         <v>243</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="K30" s="53"/>
       <c r="L30" s="53"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="53" t="s">
         <v>246</v>
       </c>
@@ -7611,7 +7611,7 @@
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="C32" s="53" t="s">
@@ -7627,7 +7627,7 @@
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="53" t="s">
         <v>80</v>
       </c>
@@ -7643,7 +7643,7 @@
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="53" t="s">
         <v>81</v>
       </c>
@@ -7659,7 +7659,7 @@
       <c r="K34" s="53"/>
       <c r="L34" s="53"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="53"/>
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
@@ -7673,7 +7673,7 @@
       <c r="K35" s="53"/>
       <c r="L35" s="53"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="53" t="s">
         <v>82</v>
       </c>
@@ -7689,7 +7689,7 @@
       <c r="K36" s="53"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="53"/>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -7704,7 +7704,7 @@
       <c r="L37" s="54"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="53" t="s">
         <v>234</v>
       </c>
@@ -7720,7 +7720,7 @@
       <c r="K38" s="53"/>
       <c r="L38" s="53"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="53" t="s">
         <v>250</v>
       </c>
@@ -7752,12 +7752,12 @@
       <selection activeCell="A11" sqref="A11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="74"/>
+    <col min="1" max="16384" width="11.44140625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="74" t="s">
         <v>252</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" s="75"/>
@@ -7778,32 +7778,32 @@
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A3" s="74" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="74" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="74" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="74" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" s="74" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A13" s="76" t="s">
         <v>257</v>
       </c>
@@ -7825,13 +7825,13 @@
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="68.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="72" t="s">
         <v>68</v>
       </c>
@@ -7839,7 +7839,7 @@
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="72" t="s">
         <v>477</v>
       </c>
@@ -7847,7 +7847,7 @@
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
     </row>
-    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="72" t="s">
         <v>478</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="72" t="s">
         <v>68</v>
       </c>
@@ -7865,7 +7865,7 @@
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
     </row>
-    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="72" t="s">
         <v>69</v>
       </c>
@@ -7873,7 +7873,7 @@
       <c r="C5" s="71"/>
       <c r="D5" s="71"/>
     </row>
-    <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="72" t="s">
         <v>70</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
     </row>
-    <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A7" s="72" t="s">
         <v>350</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
         <v>351</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="72" t="s">
         <v>352</v>
       </c>
@@ -7909,7 +7909,7 @@
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
     </row>
-    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="72" t="s">
         <v>353</v>
       </c>
@@ -7917,7 +7917,7 @@
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
     </row>
-    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="72" t="s">
         <v>354</v>
       </c>
@@ -7925,7 +7925,7 @@
       <c r="C11" s="71"/>
       <c r="D11" s="71"/>
     </row>
-    <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
         <v>106</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
     </row>
-    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
         <v>355</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A14" s="72" t="s">
         <v>356</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="72" t="s">
         <v>357</v>
       </c>
@@ -7961,7 +7961,7 @@
       <c r="C15" s="71"/>
       <c r="D15" s="71"/>
     </row>
-    <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A16" s="72" t="s">
         <v>358</v>
       </c>
@@ -7969,107 +7969,107 @@
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
     </row>
-    <row r="17" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="72" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A21" s="72" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A29" s="72" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A30" s="72" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
         <v>487</v>
       </c>
       <c r="B33" s="71"/>
       <c r="C33" s="71"/>
     </row>
-    <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
         <v>81</v>
       </c>
       <c r="B34" s="71"/>
       <c r="C34" s="71"/>
     </row>
-    <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
         <v>235</v>
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
     </row>
-    <row r="36" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
         <v>235</v>
       </c>
       <c r="B36" s="71"/>
       <c r="C36" s="71"/>
     </row>
-    <row r="37" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A37" s="72" t="s">
         <v>488</v>
       </c>
       <c r="B37" s="71"/>
       <c r="C37" s="71"/>
     </row>
-    <row r="38" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A38" s="72" t="s">
         <v>236</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A39" s="72" t="s">
         <v>489</v>
       </c>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="C39" s="71"/>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A40" s="72" t="s">
         <v>491</v>
       </c>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="C40" s="71"/>
     </row>
-    <row r="41" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A41" s="72" t="s">
         <v>493</v>
       </c>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="C41" s="71"/>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A42" s="72" t="s">
         <v>491</v>
       </c>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="C42" s="71"/>
     </row>
-    <row r="43" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A43" s="72" t="s">
         <v>414</v>
       </c>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="C43" s="71"/>
     </row>
-    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A44" s="72" t="s">
         <v>495</v>
       </c>
@@ -8132,28 +8132,28 @@
       </c>
       <c r="C44" s="71"/>
     </row>
-    <row r="45" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A45" s="72" t="s">
         <v>497</v>
       </c>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
     </row>
-    <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A46" s="72" t="s">
         <v>516</v>
       </c>
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
     </row>
-    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A47" s="72" t="s">
         <v>498</v>
       </c>
       <c r="B47" s="71"/>
       <c r="C47" s="71"/>
     </row>
-    <row r="48" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
         <v>241</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A49" s="73" t="s">
         <v>238</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A50" s="72" t="s">
         <v>81</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A51" s="72" t="s">
         <v>499</v>
       </c>
@@ -8189,28 +8189,28 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A52" s="72" t="s">
         <v>501</v>
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="71"/>
     </row>
-    <row r="53" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A53" s="72" t="s">
         <v>493</v>
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="71"/>
     </row>
-    <row r="54" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A54" s="72" t="s">
         <v>501</v>
       </c>
       <c r="B54" s="71"/>
       <c r="C54" s="71"/>
     </row>
-    <row r="55" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
         <v>502</v>
       </c>
@@ -8219,14 +8219,14 @@
         <v>503</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A56" s="72" t="s">
         <v>504</v>
       </c>
       <c r="B56" s="71"/>
       <c r="C56" s="71"/>
     </row>
-    <row r="57" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A57" s="72" t="s">
         <v>374</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A58" s="72" t="s">
         <v>235</v>
       </c>
@@ -8244,14 +8244,14 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A59" s="72" t="s">
         <v>384</v>
       </c>
       <c r="B59" s="71"/>
       <c r="C59" s="71"/>
     </row>
-    <row r="60" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A60" s="72" t="s">
         <v>507</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A61" s="72" t="s">
         <v>243</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="73" t="s">
         <v>246</v>
       </c>
@@ -8278,51 +8278,51 @@
       </c>
       <c r="C62" s="71"/>
     </row>
-    <row r="63" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A63" s="72" t="s">
         <v>80</v>
       </c>
       <c r="B63" s="71"/>
       <c r="C63" s="71"/>
     </row>
-    <row r="64" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A64" s="72" t="s">
         <v>81</v>
       </c>
       <c r="B64" s="71"/>
       <c r="C64" s="71"/>
     </row>
-    <row r="66" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A66" s="72" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A67" s="72" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A68" s="72" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A69" s="72" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A70" s="72" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A71" s="72" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A74" s="72" t="s">
         <v>250</v>
       </c>
@@ -8340,12 +8340,12 @@
       <selection activeCell="A70" sqref="A70:L70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22"/>
       <c r="D1" s="55" t="s">
         <v>341</v>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="M1" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A4" s="40" t="s">
         <v>392</v>
       </c>
@@ -8379,7 +8379,7 @@
       <c r="M4" s="41"/>
       <c r="N4" s="43"/>
     </row>
-    <row r="5" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A5" s="48" t="s">
         <v>393</v>
       </c>
@@ -8397,7 +8397,7 @@
       <c r="M5" s="52"/>
       <c r="N5" s="56"/>
     </row>
-    <row r="6" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A6" s="48" t="s">
         <v>394</v>
       </c>
@@ -8415,7 +8415,7 @@
       <c r="M6" s="52"/>
       <c r="N6" s="56"/>
     </row>
-    <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A7" s="48" t="s">
         <v>400</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="M7" s="52"/>
       <c r="N7" s="56"/>
     </row>
-    <row r="8" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="48" t="s">
         <v>396</v>
       </c>
@@ -8451,7 +8451,7 @@
       <c r="M8" s="52"/>
       <c r="N8" s="56"/>
     </row>
-    <row r="9" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A9" s="48" t="s">
         <v>397</v>
       </c>
@@ -8469,7 +8469,7 @@
       <c r="M9" s="52"/>
       <c r="N9" s="56"/>
     </row>
-    <row r="10" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A10" s="48"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -8487,7 +8487,7 @@
       <c r="M10" s="52"/>
       <c r="N10" s="56"/>
     </row>
-    <row r="11" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="48"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -8505,7 +8505,7 @@
       <c r="M11" s="52"/>
       <c r="N11" s="56"/>
     </row>
-    <row r="12" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A12" s="50"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -8523,7 +8523,7 @@
       <c r="M12" s="57"/>
       <c r="N12" s="58"/>
     </row>
-    <row r="17" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>345</v>
       </c>
@@ -8557,7 +8557,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
         <v>346</v>
       </c>
@@ -8574,7 +8574,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>408</v>
       </c>
@@ -8591,7 +8591,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>391</v>
       </c>
@@ -8608,7 +8608,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
         <v>347</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A23" s="5" t="s">
         <v>348</v>
       </c>
@@ -8642,7 +8642,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>349</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="s">
         <v>350</v>
       </c>
@@ -8676,7 +8676,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A26" s="5" t="s">
         <v>351</v>
       </c>
@@ -8693,7 +8693,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A27" s="5" t="s">
         <v>352</v>
       </c>
@@ -8710,7 +8710,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A28" s="5" t="s">
         <v>353</v>
       </c>
@@ -8727,7 +8727,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A29" s="5" t="s">
         <v>354</v>
       </c>
@@ -8744,7 +8744,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A30" s="5" t="s">
         <v>106</v>
       </c>
@@ -8761,7 +8761,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -8776,7 +8776,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A32" s="5" t="s">
         <v>355</v>
       </c>
@@ -8793,7 +8793,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A33" s="5" t="s">
         <v>356</v>
       </c>
@@ -8810,7 +8810,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="s">
         <v>357</v>
       </c>
@@ -8827,7 +8827,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A35" s="5" t="s">
         <v>358</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>359</v>
       </c>
@@ -8861,7 +8861,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A37" s="5" t="s">
         <v>106</v>
       </c>
@@ -8878,7 +8878,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -8893,7 +8893,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A39" s="5" t="s">
         <v>108</v>
       </c>
@@ -8910,7 +8910,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A40" s="5" t="s">
         <v>146</v>
       </c>
@@ -8927,7 +8927,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A41" s="5" t="s">
         <v>147</v>
       </c>
@@ -8944,7 +8944,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>81</v>
       </c>
@@ -8961,7 +8961,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>106</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -8993,7 +8993,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -9008,7 +9008,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -9023,7 +9023,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -9038,7 +9038,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A48" s="5" t="s">
         <v>360</v>
       </c>
@@ -9055,7 +9055,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A49" s="5" t="s">
         <v>361</v>
       </c>
@@ -9072,7 +9072,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A50" s="5" t="s">
         <v>362</v>
       </c>
@@ -9089,7 +9089,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A51" s="5" t="s">
         <v>235</v>
       </c>
@@ -9106,7 +9106,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A52" s="5" t="s">
         <v>235</v>
       </c>
@@ -9123,7 +9123,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A53" s="5" t="s">
         <v>363</v>
       </c>
@@ -9140,7 +9140,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A54" s="5" t="s">
         <v>364</v>
       </c>
@@ -9157,7 +9157,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
-    <row r="55" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A55" s="5" t="s">
         <v>365</v>
       </c>
@@ -9176,7 +9176,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
     </row>
-    <row r="56" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A56" s="5" t="s">
         <v>366</v>
       </c>
@@ -9193,7 +9193,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
     </row>
-    <row r="57" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A57" s="5" t="s">
         <v>363</v>
       </c>
@@ -9210,7 +9210,7 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
     </row>
-    <row r="58" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A58" s="5" t="s">
         <v>367</v>
       </c>
@@ -9227,7 +9227,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
     </row>
-    <row r="59" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A59" s="55" t="s">
         <v>368</v>
       </c>
@@ -9244,7 +9244,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A60" s="5" t="s">
         <v>369</v>
       </c>
@@ -9261,7 +9261,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A61" s="5" t="s">
         <v>370</v>
       </c>
@@ -9278,7 +9278,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>371</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A63" s="5" t="s">
         <v>363</v>
       </c>
@@ -9312,7 +9312,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A64" s="5" t="s">
         <v>372</v>
       </c>
@@ -9329,7 +9329,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
         <v>95</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A66" s="5" t="s">
         <v>96</v>
       </c>
@@ -9363,7 +9363,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A67" s="55" t="s">
         <v>373</v>
       </c>
@@ -9380,7 +9380,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A68" s="5" t="s">
         <v>374</v>
       </c>
@@ -9399,7 +9399,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A69" s="5" t="s">
         <v>375</v>
       </c>
@@ -9416,7 +9416,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
         <v>376</v>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="s">
         <v>377</v>
       </c>
@@ -9450,7 +9450,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A72" s="5" t="s">
         <v>378</v>
       </c>
@@ -9467,7 +9467,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
     </row>
-    <row r="73" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A73" s="5" t="s">
         <v>379</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
     </row>
-    <row r="74" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A74" s="5" t="s">
         <v>81</v>
       </c>
@@ -9501,7 +9501,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A75" s="5" t="s">
         <v>380</v>
       </c>
@@ -9518,7 +9518,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
     </row>
-    <row r="76" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A76" s="5" t="s">
         <v>403</v>
       </c>
@@ -9535,7 +9535,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A77" s="5" t="s">
         <v>401</v>
       </c>
@@ -9552,7 +9552,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A78" s="5" t="s">
         <v>381</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
     </row>
-    <row r="79" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A79" s="5" t="s">
         <v>382</v>
       </c>
@@ -9586,7 +9586,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
     </row>
-    <row r="80" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A80" s="5" t="s">
         <v>402</v>
       </c>
@@ -9605,7 +9605,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
-    <row r="81" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -9620,7 +9620,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
     </row>
-    <row r="82" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A82" s="5" t="s">
         <v>383</v>
       </c>
@@ -9637,7 +9637,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
     </row>
-    <row r="83" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A83" s="5" t="s">
         <v>384</v>
       </c>
@@ -9656,7 +9656,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
     </row>
-    <row r="84" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A84" s="5" t="s">
         <v>385</v>
       </c>
@@ -9675,7 +9675,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
     </row>
-    <row r="85" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A85" s="5" t="s">
         <v>386</v>
       </c>
@@ -9692,7 +9692,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
     </row>
-    <row r="86" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A86" s="5" t="s">
         <v>387</v>
       </c>
@@ -9709,7 +9709,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
     </row>
-    <row r="87" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A87" s="5" t="s">
         <v>388</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
     </row>
-    <row r="88" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A88" s="5" t="s">
         <v>389</v>
       </c>
@@ -9743,7 +9743,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
     </row>
-    <row r="89" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A89" s="5" t="s">
         <v>390</v>
       </c>
@@ -9773,9 +9773,9 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
         <v>252</v>
       </c>
@@ -9788,7 +9788,7 @@
       <c r="H1" s="106"/>
       <c r="I1" s="106"/>
     </row>
-    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="22"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -9797,7 +9797,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
     </row>
-    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>410</v>
       </c>
@@ -9814,7 +9814,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>411</v>
       </c>
@@ -9831,7 +9831,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>412</v>
       </c>
@@ -9848,7 +9848,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>413</v>
       </c>
@@ -9865,7 +9865,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -9880,7 +9880,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>518</v>
       </c>
@@ -9899,7 +9899,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -9916,7 +9916,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -9933,7 +9933,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -9950,7 +9950,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -9965,7 +9965,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -9982,7 +9982,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -9997,7 +9997,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -10012,7 +10012,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -10027,7 +10027,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -10042,7 +10042,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -10057,7 +10057,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -10072,7 +10072,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -10087,7 +10087,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -10102,7 +10102,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -10117,7 +10117,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -10132,7 +10132,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -10147,7 +10147,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -10162,7 +10162,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -10177,7 +10177,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -10192,7 +10192,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -10207,7 +10207,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -10238,242 +10238,242 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="72"/>
+    <col min="1" max="16384" width="11.44140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="72" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="72" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="72" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="72" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="72" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="72" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="72" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="72" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="72" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="72" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="72" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="72" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="72" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="72" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="72" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="72" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="72" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="72" t="s">
         <v>525</v>
       </c>
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
         <v>526</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="72" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="72" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="72" t="s">
         <v>527</v>
       </c>
       <c r="B43" s="53"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="72" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="72" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="72" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="72" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="72" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="72" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="72" t="s">
         <v>374</v>
       </c>
@@ -10481,86 +10481,86 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="72" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="72" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="72" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="53" t="s">
         <v>189</v>
       </c>
       <c r="B57" s="53"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="53" t="s">
         <v>529</v>
       </c>
       <c r="B58" s="53"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="53" t="s">
         <v>530</v>
       </c>
       <c r="B59" s="53"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="53" t="s">
         <v>531</v>
       </c>
       <c r="B60" s="53"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="72" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="72" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="72" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="72" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="72" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="72" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="72" t="s">
         <v>402</v>
       </c>
@@ -10568,12 +10568,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="72" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="72" t="s">
         <v>384</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="72" t="s">
         <v>385</v>
       </c>
@@ -10589,27 +10589,27 @@
         <v>407</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="72" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="72" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="72" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="72" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="72" t="s">
         <v>390</v>
       </c>
@@ -10623,20 +10623,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="8"/>
-    <col min="7" max="7" width="60.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="8"/>
-    <col min="9" max="9" width="8.28515625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="6" width="11.44140625" style="8"/>
+    <col min="7" max="7" width="60.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="8"/>
+    <col min="9" max="9" width="8.33203125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B1" s="110" t="s">
         <v>417</v>
       </c>
@@ -10650,17 +10650,17 @@
       <c r="J1" s="110"/>
       <c r="K1" s="110"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="61" t="s">
         <v>425</v>
       </c>
@@ -10680,7 +10680,7 @@
       <c r="M7" s="62"/>
       <c r="N7" s="63"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="64" t="s">
         <v>426</v>
       </c>
@@ -10698,7 +10698,7 @@
       <c r="M8" s="65"/>
       <c r="N8" s="66"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="64"/>
       <c r="B9" s="65" t="s">
         <v>427</v>
@@ -10716,7 +10716,7 @@
       <c r="M9" s="65"/>
       <c r="N9" s="66"/>
     </row>
-    <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="64"/>
       <c r="B10" s="65" t="s">
         <v>428</v>
@@ -10740,7 +10740,7 @@
       <c r="M10" s="65"/>
       <c r="N10" s="66"/>
     </row>
-    <row r="11" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="68"/>
       <c r="B11" s="69" t="s">
         <v>429</v>
@@ -10762,7 +10762,7 @@
       <c r="M11" s="69"/>
       <c r="N11" s="70"/>
     </row>
-    <row r="15" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="61" t="s">
         <v>435</v>
       </c>
@@ -10782,7 +10782,7 @@
       <c r="M15" s="62"/>
       <c r="N15" s="63"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="64" t="s">
         <v>454</v>
       </c>
@@ -10800,7 +10800,7 @@
       <c r="M16" s="65"/>
       <c r="N16" s="66"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="64"/>
       <c r="B17" s="65" t="s">
         <v>455</v>
@@ -10818,7 +10818,7 @@
       <c r="M17" s="65"/>
       <c r="N17" s="66"/>
     </row>
-    <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="64"/>
       <c r="B18" s="65" t="s">
         <v>456</v>
@@ -10842,7 +10842,7 @@
       <c r="M18" s="65"/>
       <c r="N18" s="66"/>
     </row>
-    <row r="19" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A19" s="64"/>
       <c r="B19" s="65" t="s">
         <v>436</v>
@@ -10864,7 +10864,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="66"/>
     </row>
-    <row r="20" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="68"/>
       <c r="B20" s="69"/>
       <c r="C20" s="69"/>
@@ -10882,7 +10882,7 @@
       <c r="M20" s="69"/>
       <c r="N20" s="70"/>
     </row>
-    <row r="24" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="61" t="s">
         <v>442</v>
       </c>
@@ -10902,7 +10902,7 @@
       <c r="M24" s="62"/>
       <c r="N24" s="63"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="64" t="s">
         <v>457</v>
       </c>
@@ -10920,7 +10920,7 @@
       <c r="M25" s="65"/>
       <c r="N25" s="66"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="64"/>
       <c r="B26" s="65" t="s">
         <v>447</v>
@@ -10938,7 +10938,7 @@
       <c r="M26" s="65"/>
       <c r="N26" s="66"/>
     </row>
-    <row r="27" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="64"/>
       <c r="B27" s="65" t="s">
         <v>448</v>
@@ -10962,7 +10962,7 @@
       <c r="M27" s="65"/>
       <c r="N27" s="66"/>
     </row>
-    <row r="28" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="64"/>
       <c r="B28" s="65" t="s">
         <v>449</v>
@@ -10982,7 +10982,7 @@
       <c r="M28" s="65"/>
       <c r="N28" s="66"/>
     </row>
-    <row r="29" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="64"/>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
@@ -11000,7 +11000,7 @@
       <c r="M29" s="65"/>
       <c r="N29" s="66"/>
     </row>
-    <row r="30" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="68"/>
       <c r="B30" s="69"/>
       <c r="C30" s="69"/>
@@ -11018,7 +11018,7 @@
       <c r="M30" s="69"/>
       <c r="N30" s="70"/>
     </row>
-    <row r="33" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="61" t="s">
         <v>450</v>
       </c>
@@ -11038,7 +11038,7 @@
       <c r="M33" s="62"/>
       <c r="N33" s="63"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="64" t="s">
         <v>458</v>
       </c>
@@ -11056,7 +11056,7 @@
       <c r="M34" s="65"/>
       <c r="N34" s="66"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="64"/>
       <c r="B35" s="65" t="s">
         <v>462</v>
@@ -11074,7 +11074,7 @@
       <c r="M35" s="65"/>
       <c r="N35" s="66"/>
     </row>
-    <row r="36" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="64"/>
       <c r="B36" s="65" t="s">
         <v>459</v>
@@ -11098,7 +11098,7 @@
       <c r="M36" s="65"/>
       <c r="N36" s="66"/>
     </row>
-    <row r="37" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="64"/>
       <c r="B37" s="65" t="s">
         <v>460</v>
@@ -11118,7 +11118,7 @@
       <c r="M37" s="65"/>
       <c r="N37" s="66"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="68"/>
       <c r="B38" s="69"/>
       <c r="C38" s="69"/>
@@ -11134,7 +11134,7 @@
       <c r="M38" s="69"/>
       <c r="N38" s="70"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>419</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>420</v>
       </c>
@@ -11150,12 +11150,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="60" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>269</v>
       </c>
@@ -11163,12 +11163,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B47" s="8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
         <v>270</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B51" s="8" t="s">
         <v>468</v>
       </c>
@@ -11184,17 +11184,17 @@
         <v>670</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B52" s="8" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B53" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B54" s="8" t="s">
         <v>472</v>
       </c>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="G54" s="91"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B55" s="8" t="s">
         <v>473</v>
       </c>
@@ -11215,12 +11215,12 @@
       </c>
       <c r="G55" s="93"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B56" s="8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B57" s="8" t="s">
         <v>476</v>
       </c>
@@ -11242,12 +11242,12 @@
       <selection activeCell="A74" sqref="A74:B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:11" ht="46.2" x14ac:dyDescent="0.85">
       <c r="C1" s="111" t="s">
         <v>671</v>
       </c>
@@ -11260,167 +11260,167 @@
       <c r="J1" s="112"/>
       <c r="K1" s="113"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A5" s="7" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>619</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>620</v>
       </c>
@@ -11436,122 +11436,122 @@
         <v>669</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
         <v>639</v>
       </c>
@@ -11559,57 +11559,57 @@
         <v>722</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
         <v>647</v>
       </c>
@@ -11617,112 +11617,112 @@
         <v>723</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" s="7" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" s="7" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" s="7" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" s="7" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" s="7" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" s="7" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" s="7" t="s">
         <v>663</v>
       </c>
@@ -11740,18 +11740,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DA044D-AC55-4F06-B19C-538F3937153C}">
   <dimension ref="A2:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -11762,17 +11762,17 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -11789,7 +11789,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -11806,7 +11806,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -11823,7 +11823,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -11840,7 +11840,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -11857,12 +11857,12 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -11872,12 +11872,12 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -11898,7 +11898,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -11917,17 +11917,17 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
@@ -11944,7 +11944,7 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
@@ -11954,7 +11954,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -11962,22 +11962,22 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
@@ -11988,7 +11988,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B32" s="5" t="s">
         <v>804</v>
       </c>
@@ -11999,7 +11999,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -12008,12 +12008,12 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -12034,7 +12034,7 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
@@ -12051,22 +12051,22 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B41" s="5" t="s">
         <v>47</v>
       </c>
@@ -12082,7 +12082,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B42" s="5" t="s">
         <v>48</v>
       </c>
@@ -12098,36 +12098,36 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B44" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
@@ -12147,7 +12147,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -12169,7 +12169,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A52" s="5" t="s">
         <v>56</v>
       </c>
@@ -12185,7 +12185,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -12201,7 +12201,7 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
       <c r="G54" s="5" t="s">
         <v>59</v>
       </c>
@@ -12214,32 +12214,32 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A58" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
@@ -12252,7 +12252,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -12265,17 +12265,17 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
@@ -12294,17 +12294,17 @@
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7"/>
-    <col min="2" max="2" width="24.7109375" style="7" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" style="7"/>
-    <col min="6" max="6" width="24.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="7"/>
+    <col min="2" max="2" width="24.6640625" style="7" customWidth="1"/>
+    <col min="3" max="5" width="11.44140625" style="7"/>
+    <col min="6" max="6" width="24.44140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="25" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="7"/>
+    <col min="8" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="114" t="s">
         <v>532</v>
       </c>
@@ -12321,7 +12321,7 @@
       <c r="L1" s="114"/>
       <c r="M1" s="114"/>
     </row>
-    <row r="3" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>561</v>
       </c>
@@ -12338,12 +12338,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" s="77" t="s">
         <v>69</v>
       </c>
@@ -12358,7 +12358,7 @@
       <c r="M5" s="78"/>
       <c r="N5" s="79"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F6" s="80" t="s">
         <v>70</v>
       </c>
@@ -12371,7 +12371,7 @@
       <c r="M6" s="81"/>
       <c r="N6" s="82"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F7" s="80"/>
       <c r="G7" s="81"/>
       <c r="H7" s="81"/>
@@ -12382,7 +12382,7 @@
       <c r="M7" s="81"/>
       <c r="N7" s="82"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F8" s="80" t="s">
         <v>360</v>
       </c>
@@ -12395,7 +12395,7 @@
       <c r="M8" s="81"/>
       <c r="N8" s="82"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F9" s="80" t="s">
         <v>541</v>
       </c>
@@ -12408,7 +12408,7 @@
       <c r="M9" s="81"/>
       <c r="N9" s="82"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F10" s="80" t="s">
         <v>542</v>
       </c>
@@ -12421,7 +12421,7 @@
       <c r="M10" s="81"/>
       <c r="N10" s="82"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F11" s="80" t="s">
         <v>363</v>
       </c>
@@ -12434,7 +12434,7 @@
       <c r="M11" s="81"/>
       <c r="N11" s="82"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F12" s="80"/>
       <c r="G12" s="81" t="s">
         <v>543</v>
@@ -12449,7 +12449,7 @@
       <c r="M12" s="81"/>
       <c r="N12" s="82"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F13" s="87" t="s">
         <v>545</v>
       </c>
@@ -12462,7 +12462,7 @@
       <c r="M13" s="81"/>
       <c r="N13" s="82"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F14" s="80" t="s">
         <v>535</v>
       </c>
@@ -12477,7 +12477,7 @@
       <c r="M14" s="81"/>
       <c r="N14" s="82"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F15" s="81" t="s">
         <v>547</v>
       </c>
@@ -12492,7 +12492,7 @@
       <c r="M15" s="81"/>
       <c r="N15" s="82"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F16" s="81" t="s">
         <v>549</v>
       </c>
@@ -12507,7 +12507,7 @@
       <c r="M16" s="81"/>
       <c r="N16" s="82"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F17" s="80" t="s">
         <v>560</v>
       </c>
@@ -12522,7 +12522,7 @@
       <c r="M17" s="81"/>
       <c r="N17" s="82"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F18" s="80" t="s">
         <v>552</v>
       </c>
@@ -12537,7 +12537,7 @@
       <c r="M18" s="81"/>
       <c r="N18" s="82"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F19" s="80" t="s">
         <v>96</v>
       </c>
@@ -12550,7 +12550,7 @@
       <c r="M19" s="81"/>
       <c r="N19" s="82"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F20" s="80" t="s">
         <v>554</v>
       </c>
@@ -12563,7 +12563,7 @@
       <c r="M20" s="81"/>
       <c r="N20" s="82"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F21" s="87" t="s">
         <v>555</v>
       </c>
@@ -12578,7 +12578,7 @@
       <c r="M21" s="81"/>
       <c r="N21" s="82"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F22" s="80" t="s">
         <v>95</v>
       </c>
@@ -12591,7 +12591,7 @@
       <c r="M22" s="81"/>
       <c r="N22" s="82"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F23" s="80" t="s">
         <v>96</v>
       </c>
@@ -12604,7 +12604,7 @@
       <c r="M23" s="81"/>
       <c r="N23" s="82"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F24" s="80" t="s">
         <v>557</v>
       </c>
@@ -12617,7 +12617,7 @@
       <c r="M24" s="81"/>
       <c r="N24" s="82"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F25" s="80" t="s">
         <v>558</v>
       </c>
@@ -12630,7 +12630,7 @@
       <c r="M25" s="81"/>
       <c r="N25" s="82"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F26" s="83" t="s">
         <v>559</v>
       </c>
@@ -12643,7 +12643,7 @@
       <c r="M26" s="84"/>
       <c r="N26" s="85"/>
     </row>
-    <row r="30" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>562</v>
       </c>
@@ -12657,12 +12657,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F32" s="86" t="s">
         <v>599</v>
       </c>
@@ -12675,7 +12675,7 @@
       <c r="M32" s="86"/>
       <c r="N32" s="86"/>
     </row>
-    <row r="33" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F33" s="86" t="s">
         <v>597</v>
       </c>
@@ -12688,7 +12688,7 @@
       <c r="M33" s="86"/>
       <c r="N33" s="86"/>
     </row>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F34" s="86"/>
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
@@ -12699,7 +12699,7 @@
       <c r="M34" s="86"/>
       <c r="N34" s="86"/>
     </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F35" s="86" t="s">
         <v>563</v>
       </c>
@@ -12714,7 +12714,7 @@
       <c r="M35" s="86"/>
       <c r="N35" s="86"/>
     </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F36" s="86" t="s">
         <v>104</v>
       </c>
@@ -12727,7 +12727,7 @@
       <c r="M36" s="86"/>
       <c r="N36" s="86"/>
     </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F37" s="86" t="s">
         <v>147</v>
       </c>
@@ -12740,7 +12740,7 @@
       <c r="M37" s="86"/>
       <c r="N37" s="86"/>
     </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F38" s="86" t="s">
         <v>81</v>
       </c>
@@ -12753,7 +12753,7 @@
       <c r="M38" s="86"/>
       <c r="N38" s="86"/>
     </row>
-    <row r="39" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F39" s="86" t="s">
         <v>106</v>
       </c>
@@ -12766,7 +12766,7 @@
       <c r="M39" s="86"/>
       <c r="N39" s="86"/>
     </row>
-    <row r="40" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F40" s="86"/>
       <c r="G40" s="86"/>
       <c r="H40" s="86"/>
@@ -12777,7 +12777,7 @@
       <c r="M40" s="86"/>
       <c r="N40" s="86"/>
     </row>
-    <row r="41" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F41" s="86" t="s">
         <v>69</v>
       </c>
@@ -12790,7 +12790,7 @@
       <c r="M41" s="86"/>
       <c r="N41" s="86"/>
     </row>
-    <row r="42" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F42" s="86" t="s">
         <v>70</v>
       </c>
@@ -12803,7 +12803,7 @@
       <c r="M42" s="86"/>
       <c r="N42" s="86"/>
     </row>
-    <row r="43" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F43" s="86" t="s">
         <v>565</v>
       </c>
@@ -12818,7 +12818,7 @@
       <c r="M43" s="86"/>
       <c r="N43" s="86"/>
     </row>
-    <row r="44" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F44" s="86" t="s">
         <v>542</v>
       </c>
@@ -12831,7 +12831,7 @@
       <c r="M44" s="86"/>
       <c r="N44" s="86"/>
     </row>
-    <row r="45" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F45" s="86" t="s">
         <v>567</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="M45" s="86"/>
       <c r="N45" s="86"/>
     </row>
-    <row r="46" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F46" s="86" t="s">
         <v>567</v>
       </c>
@@ -12859,7 +12859,7 @@
       <c r="M46" s="86"/>
       <c r="N46" s="86"/>
     </row>
-    <row r="47" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F47" s="86" t="s">
         <v>569</v>
       </c>
@@ -12874,7 +12874,7 @@
       <c r="M47" s="86"/>
       <c r="N47" s="86"/>
     </row>
-    <row r="48" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F48" s="86" t="s">
         <v>571</v>
       </c>
@@ -12887,7 +12887,7 @@
       <c r="M48" s="86"/>
       <c r="N48" s="86"/>
     </row>
-    <row r="49" spans="6:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="49" spans="6:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="F49" s="86" t="s">
         <v>609</v>
       </c>
@@ -12902,7 +12902,7 @@
       <c r="M49" s="86"/>
       <c r="N49" s="86"/>
     </row>
-    <row r="50" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F50" s="86" t="s">
         <v>573</v>
       </c>
@@ -12915,7 +12915,7 @@
       <c r="M50" s="86"/>
       <c r="N50" s="86"/>
     </row>
-    <row r="51" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F51" s="86" t="s">
         <v>574</v>
       </c>
@@ -12930,7 +12930,7 @@
       <c r="M51" s="86"/>
       <c r="N51" s="86"/>
     </row>
-    <row r="52" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F52" s="86" t="s">
         <v>576</v>
       </c>
@@ -12943,7 +12943,7 @@
       <c r="M52" s="86"/>
       <c r="N52" s="86"/>
     </row>
-    <row r="53" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F53" s="86" t="s">
         <v>577</v>
       </c>
@@ -12958,7 +12958,7 @@
       <c r="M53" s="86"/>
       <c r="N53" s="86"/>
     </row>
-    <row r="54" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F54" s="86" t="s">
         <v>579</v>
       </c>
@@ -12973,7 +12973,7 @@
       <c r="M54" s="86"/>
       <c r="N54" s="86"/>
     </row>
-    <row r="55" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F55" s="86" t="s">
         <v>581</v>
       </c>
@@ -12988,7 +12988,7 @@
       <c r="M55" s="86"/>
       <c r="N55" s="86"/>
     </row>
-    <row r="56" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F56" s="86" t="s">
         <v>583</v>
       </c>
@@ -13003,7 +13003,7 @@
       <c r="M56" s="86"/>
       <c r="N56" s="86"/>
     </row>
-    <row r="57" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F57" s="86" t="s">
         <v>577</v>
       </c>
@@ -13018,7 +13018,7 @@
       <c r="M57" s="86"/>
       <c r="N57" s="86"/>
     </row>
-    <row r="58" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F58" s="86" t="s">
         <v>586</v>
       </c>
@@ -13031,7 +13031,7 @@
       <c r="M58" s="86"/>
       <c r="N58" s="86"/>
     </row>
-    <row r="59" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F59" s="86" t="s">
         <v>587</v>
       </c>
@@ -13046,7 +13046,7 @@
       <c r="M59" s="86"/>
       <c r="N59" s="86"/>
     </row>
-    <row r="60" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F60" s="86" t="s">
         <v>589</v>
       </c>
@@ -13061,7 +13061,7 @@
       <c r="M60" s="86"/>
       <c r="N60" s="86"/>
     </row>
-    <row r="61" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F61" s="86" t="s">
         <v>555</v>
       </c>
@@ -13076,7 +13076,7 @@
       <c r="M61" s="86"/>
       <c r="N61" s="86"/>
     </row>
-    <row r="62" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F62" s="86"/>
       <c r="G62" s="86"/>
       <c r="H62" s="86"/>
@@ -13087,7 +13087,7 @@
       <c r="M62" s="86"/>
       <c r="N62" s="86"/>
     </row>
-    <row r="63" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F63" s="86" t="s">
         <v>592</v>
       </c>
@@ -13100,7 +13100,7 @@
       <c r="M63" s="86"/>
       <c r="N63" s="86"/>
     </row>
-    <row r="64" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:14" x14ac:dyDescent="0.4">
       <c r="F64" s="86" t="s">
         <v>593</v>
       </c>
@@ -13113,7 +13113,7 @@
       <c r="M64" s="86"/>
       <c r="N64" s="86"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F65" s="86" t="s">
         <v>594</v>
       </c>
@@ -13126,7 +13126,7 @@
       <c r="M65" s="86"/>
       <c r="N65" s="86"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F66" s="86" t="s">
         <v>595</v>
       </c>
@@ -13139,7 +13139,7 @@
       <c r="M66" s="86"/>
       <c r="N66" s="86"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F67" s="86" t="s">
         <v>559</v>
       </c>
@@ -13152,7 +13152,7 @@
       <c r="M67" s="86"/>
       <c r="N67" s="86"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F68" s="86" t="s">
         <v>596</v>
       </c>
@@ -13165,7 +13165,7 @@
       <c r="M68" s="86"/>
       <c r="N68" s="86"/>
     </row>
-    <row r="70" spans="1:14" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:14" ht="46.2" x14ac:dyDescent="0.85">
       <c r="A70" s="89" t="s">
         <v>252</v>
       </c>
@@ -13179,7 +13179,7 @@
       <c r="I70" s="72"/>
       <c r="J70" s="72"/>
     </row>
-    <row r="71" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="72"/>
       <c r="B71" s="22" t="s">
         <v>603</v>
@@ -13193,7 +13193,7 @@
       <c r="I71" s="72"/>
       <c r="J71" s="72"/>
     </row>
-    <row r="72" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="72"/>
       <c r="B72" s="22" t="s">
         <v>601</v>
@@ -13207,7 +13207,7 @@
       <c r="I72" s="72"/>
       <c r="J72" s="72"/>
     </row>
-    <row r="73" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="72"/>
       <c r="B73" s="22" t="s">
         <v>602</v>
@@ -13221,7 +13221,7 @@
       <c r="I73" s="72"/>
       <c r="J73" s="72"/>
     </row>
-    <row r="74" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="72"/>
       <c r="B74" s="22" t="s">
         <v>607</v>
@@ -13235,7 +13235,7 @@
       <c r="I74" s="72"/>
       <c r="J74" s="72"/>
     </row>
-    <row r="75" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="72"/>
       <c r="B75" s="60" t="s">
         <v>600</v>
@@ -13249,7 +13249,7 @@
       <c r="I75" s="72"/>
       <c r="J75" s="72"/>
     </row>
-    <row r="76" spans="1:14" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:14" ht="46.2" x14ac:dyDescent="0.85">
       <c r="A76" s="72"/>
       <c r="B76" s="22" t="s">
         <v>604</v>
@@ -13265,7 +13265,7 @@
       <c r="I76" s="72"/>
       <c r="J76" s="72"/>
     </row>
-    <row r="77" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="72"/>
       <c r="B77" s="22" t="s">
         <v>605</v>
@@ -13279,7 +13279,7 @@
       <c r="I77" s="72"/>
       <c r="J77" s="72"/>
     </row>
-    <row r="78" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A78" s="72"/>
       <c r="B78" s="22" t="s">
         <v>606</v>
@@ -13293,7 +13293,7 @@
       <c r="I78" s="72"/>
       <c r="J78" s="72"/>
     </row>
-    <row r="79" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A79" s="72"/>
       <c r="B79" s="72"/>
       <c r="C79" s="72"/>
@@ -13305,7 +13305,7 @@
       <c r="I79" s="72"/>
       <c r="J79" s="72"/>
     </row>
-    <row r="80" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A80" s="72"/>
       <c r="B80" s="72"/>
       <c r="C80" s="72"/>
@@ -13317,7 +13317,7 @@
       <c r="I80" s="72"/>
       <c r="J80" s="72"/>
     </row>
-    <row r="81" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A81" s="72"/>
       <c r="B81" s="72"/>
       <c r="C81" s="72"/>
@@ -13329,7 +13329,7 @@
       <c r="I81" s="72"/>
       <c r="J81" s="72"/>
     </row>
-    <row r="82" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A82" s="72"/>
       <c r="B82" s="72"/>
       <c r="C82" s="72"/>
@@ -13341,7 +13341,7 @@
       <c r="I82" s="72"/>
       <c r="J82" s="72"/>
     </row>
-    <row r="83" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A83" s="72"/>
       <c r="B83" s="72"/>
       <c r="C83" s="72"/>
@@ -13370,13 +13370,13 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" style="72" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="72"/>
+    <col min="1" max="1" width="44.5546875" style="72" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:11" ht="46.2" x14ac:dyDescent="0.85">
       <c r="C1" s="111" t="s">
         <v>712</v>
       </c>
@@ -13389,7 +13389,7 @@
       <c r="J1" s="112"/>
       <c r="K1" s="113"/>
     </row>
-    <row r="2" spans="1:11" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:11" ht="46.2" x14ac:dyDescent="0.85">
       <c r="C2" s="95"/>
       <c r="D2" s="95"/>
       <c r="E2" s="95"/>
@@ -13400,92 +13400,92 @@
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
     </row>
-    <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A3" s="72" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="72" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="72" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="72" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="72" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="72" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="D14" s="72" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="72" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="72" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="72" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="72" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="72" t="s">
         <v>681</v>
       </c>
@@ -13496,22 +13496,22 @@
         <v>724</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="72" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
         <v>579</v>
       </c>
@@ -13519,37 +13519,37 @@
         <v>725</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="72" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="72" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="72" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="72" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
         <v>689</v>
       </c>
@@ -13564,7 +13564,7 @@
       <c r="J31" s="53"/>
       <c r="K31" s="53"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
         <v>690</v>
       </c>
@@ -13579,87 +13579,87 @@
       <c r="J32" s="53"/>
       <c r="K32" s="53"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="72" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="72" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="72" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="72" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="72" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="72" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="72" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="72" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="72" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="72" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="72" t="s">
         <v>700</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="72" t="s">
         <v>372</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="72" t="s">
         <v>702</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="72" t="s">
         <v>704</v>
       </c>
@@ -13691,37 +13691,37 @@
         <v>705</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="72" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="72" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="72" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="72" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="72" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="72" t="s">
         <v>708</v>
       </c>
@@ -13743,14 +13743,14 @@
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="119.42578125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="74" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="74"/>
+    <col min="1" max="1" width="119.44140625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="74" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:10" ht="91.8" x14ac:dyDescent="1.65">
       <c r="A1" s="115" t="s">
         <v>862</v>
       </c>
@@ -13763,7 +13763,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="115"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A2" s="99"/>
       <c r="B2" s="99"/>
       <c r="C2" s="99"/>
@@ -13774,7 +13774,7 @@
       <c r="H2" s="99"/>
       <c r="I2" s="99"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A3" s="116"/>
       <c r="B3" s="116"/>
       <c r="C3" s="116"/>
@@ -13786,7 +13786,7 @@
       <c r="I3" s="116"/>
       <c r="J3" s="116"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A4" s="99"/>
       <c r="B4" s="99"/>
       <c r="C4" s="99"/>
@@ -13797,7 +13797,7 @@
       <c r="H4" s="99"/>
       <c r="I4" s="99"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A5" s="74" t="s">
         <v>828</v>
       </c>
@@ -13805,12 +13805,12 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
       <c r="C7" s="74" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A9" s="74" t="s">
         <v>563</v>
       </c>
@@ -13818,37 +13818,37 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A10" s="74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A11" s="74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A12" s="74" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A13" s="74" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A14" s="74" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A15" s="74" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
       <c r="A16" s="74" t="s">
         <v>831</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="74" t="s">
         <v>770</v>
       </c>
@@ -13864,22 +13864,22 @@
         <v>833</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" s="74" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" s="74" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" s="74" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="74" t="s">
         <v>836</v>
       </c>
@@ -13887,37 +13887,37 @@
         <v>837</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="74" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="74" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="74" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="74" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="74" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="74" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="74" t="s">
         <v>736</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="74" t="s">
         <v>754</v>
       </c>
@@ -13933,17 +13933,17 @@
         <v>845</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="74" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="74" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="74" t="s">
         <v>847</v>
       </c>
@@ -13951,17 +13951,17 @@
         <v>848</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
       <c r="C33" s="74" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
       <c r="C34" s="74" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A35" s="74" t="s">
         <v>770</v>
       </c>
@@ -13969,17 +13969,17 @@
         <v>851</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A36" s="74" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A37" s="74" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A38" s="74" t="s">
         <v>372</v>
       </c>
@@ -13987,22 +13987,22 @@
         <v>591</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A39" s="74" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A40" s="74" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A41" s="74" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A42" s="74" t="s">
         <v>854</v>
       </c>
@@ -14010,12 +14010,12 @@
         <v>855</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A43" s="74" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A44" s="74" t="s">
         <v>559</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A45" s="74" t="s">
         <v>858</v>
       </c>
@@ -14031,12 +14031,12 @@
         <v>859</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A46" s="74" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A47" s="74" t="s">
         <v>861</v>
       </c>
@@ -14059,262 +14059,262 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
         <v>821</v>
       </c>
@@ -14322,37 +14322,37 @@
         <v>822</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B58" s="7" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>826</v>
       </c>
@@ -14370,14 +14370,14 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="117" t="s">
         <v>716</v>
       </c>
@@ -14388,7 +14388,7 @@
       <c r="I3" s="118"/>
       <c r="J3" s="119"/>
     </row>
-    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="120"/>
       <c r="E4" s="121"/>
       <c r="F4" s="121"/>
@@ -14397,7 +14397,7 @@
       <c r="I4" s="121"/>
       <c r="J4" s="122"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -14408,7 +14408,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B21" s="96" t="s">
         <v>717</v>
       </c>
@@ -14421,7 +14421,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -14432,7 +14432,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
         <v>718</v>
       </c>
@@ -14445,7 +14445,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -14456,7 +14456,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -14467,7 +14467,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="2:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:10" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B26" s="6" t="s">
         <v>719</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -14493,7 +14493,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -14504,7 +14504,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
         <v>720</v>
       </c>
@@ -14517,7 +14517,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -14528,7 +14528,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -14539,7 +14539,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
         <v>721</v>
       </c>
@@ -14552,7 +14552,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -14563,7 +14563,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B34" s="3" t="s">
         <v>273</v>
       </c>
@@ -14579,7 +14579,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" s="71" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:11" s="71" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -14591,7 +14591,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B36" s="17" t="s">
         <v>728</v>
       </c>
@@ -14604,7 +14604,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B37" s="97" t="s">
         <v>729</v>
       </c>
@@ -14617,7 +14617,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -14628,7 +14628,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -14639,7 +14639,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -14671,547 +14671,547 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" s="7" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" s="7" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" s="7" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" s="7" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" s="7" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" s="7" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" s="7" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" s="7" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" s="7" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" s="7" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" s="7" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" s="7" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" s="7" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" s="7" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" s="7" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" s="7" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" s="7" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" s="7" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" s="7" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" s="7" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" s="7" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" s="7" t="s">
         <v>802</v>
       </c>
@@ -15230,22 +15230,22 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>66</v>
       </c>
@@ -15253,107 +15253,107 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>87</v>
       </c>
@@ -15372,15 +15372,15 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="11.42578125" style="7"/>
+    <col min="1" max="8" width="11.44140625" style="7"/>
     <col min="9" max="9" width="5" style="7" customWidth="1"/>
     <col min="10" max="10" width="7" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="7"/>
+    <col min="11" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
@@ -15390,7 +15390,7 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>101</v>
       </c>
@@ -15400,7 +15400,7 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>88</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
@@ -15431,7 +15431,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>69</v>
       </c>
@@ -15441,7 +15441,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>70</v>
       </c>
@@ -15451,7 +15451,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="J8" s="9"/>
       <c r="K8" s="13"/>
@@ -15461,7 +15461,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="J9" s="9"/>
       <c r="K9" s="13"/>
@@ -15471,7 +15471,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="J10" s="9"/>
       <c r="K10" s="13"/>
@@ -15481,7 +15481,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="J11" s="9"/>
       <c r="K11" s="13"/>
@@ -15491,7 +15491,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="J12" s="9"/>
       <c r="K12" s="13"/>
@@ -15501,7 +15501,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>91</v>
       </c>
@@ -15511,7 +15511,7 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>113</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>94</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>114</v>
@@ -15541,7 +15541,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="7" t="s">
         <v>115</v>
@@ -15552,7 +15552,7 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>93</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>116</v>
       </c>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>92</v>
       </c>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>117</v>
       </c>
@@ -15592,7 +15592,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="C22" s="7" t="s">
         <v>118</v>
@@ -15601,13 +15601,13 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="J23" s="9"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="C24" s="16" t="s">
         <v>119</v>
@@ -15616,7 +15616,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="C25" s="7" t="s">
         <v>120</v>
@@ -15625,7 +15625,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="C26" s="7" t="s">
         <v>201</v>
@@ -15634,7 +15634,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>95</v>
       </c>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="J28" s="9"/>
       <c r="K28" s="6" t="s">
@@ -15655,7 +15655,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>97</v>
       </c>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>98</v>
       </c>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>99</v>
       </c>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>100</v>
       </c>
@@ -15709,27 +15709,27 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
@@ -15737,28 +15737,28 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>131</v>
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>132</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>133</v>
       </c>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>134</v>
       </c>
@@ -15784,7 +15784,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>135</v>
       </c>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>136</v>
       </c>
@@ -15806,17 +15806,17 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>200</v>
       </c>
@@ -15834,24 +15834,24 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="8"/>
-    <col min="3" max="3" width="15.5703125" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="2" width="11.44140625" style="8"/>
+    <col min="3" max="3" width="15.5546875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>145</v>
       </c>
@@ -15859,22 +15859,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>108</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>146</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>147</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>81</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>106</v>
       </c>
@@ -15914,17 +15914,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F12" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F13" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>71</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>148</v>
       </c>
@@ -15940,12 +15940,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>151</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>152</v>
       </c>
@@ -15972,27 +15972,27 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>156</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>157</v>
       </c>
@@ -16011,17 +16011,17 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>81</v>
       </c>
@@ -16029,22 +16029,22 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>160</v>
       </c>
@@ -16063,15 +16063,15 @@
       <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" customWidth="1"/>
-    <col min="10" max="19" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="19" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
@@ -16085,7 +16085,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>185</v>
       </c>
@@ -16099,7 +16099,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>188</v>
       </c>
@@ -16115,7 +16115,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
@@ -16129,7 +16129,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
@@ -16143,7 +16143,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
@@ -16157,7 +16157,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>108</v>
       </c>
@@ -16171,7 +16171,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
         <v>146</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>147</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>81</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>106</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -16260,7 +16260,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -16275,7 +16275,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>71</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>148</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>186</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>150</v>
       </c>
@@ -16347,7 +16347,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>151</v>
       </c>
@@ -16361,7 +16361,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>152</v>
       </c>
@@ -16375,7 +16375,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>153</v>
       </c>
@@ -16389,7 +16389,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>154</v>
       </c>
@@ -16403,7 +16403,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>189</v>
       </c>
@@ -16417,7 +16417,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>199</v>
       </c>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>193</v>
       </c>
@@ -16465,7 +16465,7 @@
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
     </row>
-    <row r="25" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>191</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>155</v>
       </c>
@@ -16498,7 +16498,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>81</v>
       </c>
@@ -16512,7 +16512,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>156</v>
       </c>
@@ -16526,7 +16526,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>157</v>
       </c>
@@ -16540,7 +16540,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>153</v>
       </c>
@@ -16554,7 +16554,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>158</v>
       </c>
@@ -16568,7 +16568,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>198</v>
       </c>
@@ -16584,7 +16584,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A33" s="8" t="s">
         <v>193</v>
       </c>
@@ -16600,7 +16600,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>196</v>
       </c>
@@ -16616,7 +16616,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
         <v>81</v>
       </c>
@@ -16632,7 +16632,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>80</v>
       </c>
@@ -16646,7 +16646,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>81</v>
       </c>
@@ -16660,7 +16660,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -16672,7 +16672,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>82</v>
       </c>
@@ -16686,7 +16686,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -16698,7 +16698,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>197</v>
       </c>
@@ -16729,22 +16729,22 @@
       <selection activeCell="A47" sqref="A47:J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>171</v>
       </c>
@@ -16752,22 +16752,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>172</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>163</v>
       </c>
@@ -16783,57 +16783,57 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>81</v>
       </c>
@@ -16841,62 +16841,62 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>168</v>
       </c>
@@ -16904,32 +16904,32 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>170</v>
       </c>
@@ -16947,22 +16947,22 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>179</v>
       </c>
@@ -16970,122 +16970,122 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>81</v>
       </c>
@@ -17093,92 +17093,92 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
         <v>233</v>
       </c>
@@ -17193,7 +17193,7 @@
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D56" s="8" t="s">
         <v>184</v>
       </c>
